--- a/data/rings_base_invest/Power_VRES.xlsx
+++ b/data/rings_base_invest/Power_VRES.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon Malacek\Code\LEGO-Pyomo\data\rings_base_example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon Malacek\Code\LEGO-Pyomo\data\rings_base_invest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96048B8F-07B5-403F-B36B-A273757CB484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD582C4-0E93-4640-91F7-BFAD6A467FBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="450" yWindow="2730" windowWidth="28800" windowHeight="15380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ScenarioA" sheetId="1" r:id="rId1"/>
@@ -820,7 +820,7 @@
       <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K9" sqref="K9"/>
+      <selection pane="bottomRight" activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1198,20 +1198,19 @@
         <v>75</v>
       </c>
       <c r="F8" s="13">
-        <f>ROUND(0.6/G8,0)</f>
-        <v>1481</v>
+        <v>0</v>
       </c>
       <c r="G8" s="19">
         <v>4.0499999999999998E-4</v>
       </c>
       <c r="H8" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="13">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="J8" s="15">
-        <v>72641.801500000001</v>
+        <v>3200</v>
       </c>
       <c r="K8" s="15">
         <v>2</v>
